--- a/database/industries/siman/silam/product/yearly_seprated.xlsx
+++ b/database/industries/siman/silam/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F320FF84-31D1-4791-89FC-940903C1E14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6D3D8-254A-4F8F-AD5B-31A1EE69C771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/10</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/10</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/10</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/10</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -82,18 +82,18 @@
     <t>مقدار فروش خارجی</t>
   </si>
   <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>سود حاصل از سرمایه گذاری</t>
+  </si>
+  <si>
     <t>میلیون ریال</t>
   </si>
   <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>سود حاصل از سرمایه گذاری</t>
-  </si>
-  <si>
     <t>جمع فروش خدمات</t>
   </si>
   <si>
@@ -130,10 +130,10 @@
     <t>نرخ فروش خارجی</t>
   </si>
   <si>
+    <t>نرخ فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
     <t>میلیون ریال / ریال</t>
-  </si>
-  <si>
-    <t>نرخ فروش درآمد ارائه خدمات</t>
   </si>
   <si>
     <t>بهای تمام شده</t>
@@ -652,12 +652,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -667,7 +667,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -701,7 +701,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -735,7 +735,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -767,7 +767,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -787,23 +787,23 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>21271</v>
       </c>
       <c r="F11" s="11">
-        <v>21271</v>
+        <v>10013</v>
       </c>
       <c r="G11" s="11">
-        <v>10013</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -820,14 +820,14 @@
       <c r="G12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
+      <c r="H12" s="13">
+        <v>569244</v>
       </c>
       <c r="I12" s="13">
-        <v>569244</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -835,23 +835,23 @@
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>416828</v>
       </c>
       <c r="F13" s="11">
-        <v>416828</v>
+        <v>453620</v>
       </c>
       <c r="G13" s="11">
-        <v>453620</v>
-      </c>
-      <c r="H13" s="11">
         <v>461276</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -859,23 +859,23 @@
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>141816</v>
       </c>
       <c r="F14" s="13">
-        <v>141816</v>
+        <v>153642</v>
       </c>
       <c r="G14" s="13">
-        <v>153642</v>
-      </c>
-      <c r="H14" s="13">
         <v>207978</v>
       </c>
+      <c r="H14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -892,36 +892,36 @@
       <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
+      <c r="H15" s="11">
+        <v>128020</v>
       </c>
       <c r="I15" s="11">
-        <v>128020</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>544334</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>579915</v>
       </c>
       <c r="F16" s="15">
-        <v>579915</v>
+        <v>617275</v>
       </c>
       <c r="G16" s="15">
-        <v>617275</v>
+        <v>669254</v>
       </c>
       <c r="H16" s="15">
-        <v>669254</v>
+        <v>697264</v>
       </c>
       <c r="I16" s="15">
-        <v>697264</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>544334</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
@@ -941,71 +941,71 @@
         <v>12</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
+      <c r="E18" s="11">
+        <v>118480</v>
       </c>
       <c r="F18" s="11">
-        <v>118480</v>
+        <v>128936</v>
       </c>
       <c r="G18" s="11">
-        <v>128936</v>
+        <v>98634</v>
       </c>
       <c r="H18" s="11">
-        <v>98634</v>
+        <v>248712</v>
       </c>
       <c r="I18" s="11">
-        <v>248712</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>506162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
+        <v>151053</v>
+      </c>
+      <c r="F19" s="13">
+        <v>124476</v>
+      </c>
+      <c r="G19" s="13">
+        <v>31636</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="13">
-        <v>151053</v>
-      </c>
-      <c r="G19" s="13">
-        <v>124476</v>
-      </c>
-      <c r="H19" s="13">
-        <v>31636</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>269533</v>
       </c>
       <c r="F20" s="17">
-        <v>269533</v>
+        <v>253412</v>
       </c>
       <c r="G20" s="17">
-        <v>253412</v>
+        <v>130270</v>
       </c>
       <c r="H20" s="17">
-        <v>130270</v>
+        <v>248712</v>
       </c>
       <c r="I20" s="17">
-        <v>248712</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>506209</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1015,12 +1015,12 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
@@ -1029,8 +1029,8 @@
       <c r="F22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>13</v>
+      <c r="G22" s="11">
+        <v>0</v>
       </c>
       <c r="H22" s="11">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>24</v>
       </c>
@@ -1061,14 +1061,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>13</v>
+      <c r="E24" s="17">
+        <v>0</v>
       </c>
       <c r="F24" s="17">
         <v>0</v>
@@ -1076,21 +1076,21 @@
       <c r="G24" s="17">
         <v>0</v>
       </c>
-      <c r="H24" s="17">
-        <v>0</v>
+      <c r="H24" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
+      <c r="E25" s="15">
+        <v>0</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
@@ -1105,29 +1105,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17">
-        <v>0</v>
+        <v>849448</v>
       </c>
       <c r="F26" s="17">
-        <v>849448</v>
+        <v>870687</v>
       </c>
       <c r="G26" s="17">
-        <v>870687</v>
+        <v>799524</v>
       </c>
       <c r="H26" s="17">
-        <v>799524</v>
+        <v>945977</v>
       </c>
       <c r="I26" s="17">
-        <v>945977</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1050543</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1137,7 +1137,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1147,7 +1147,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1157,7 +1157,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1189,7 +1189,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>29</v>
       </c>
@@ -1201,36 +1201,36 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>13</v>
+      <c r="E33" s="11">
+        <v>15516</v>
       </c>
       <c r="F33" s="11">
-        <v>15516</v>
+        <v>7350</v>
       </c>
       <c r="G33" s="11">
-        <v>7350</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
@@ -1242,67 +1242,67 @@
       <c r="G34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>13</v>
+      <c r="H34" s="13">
+        <v>2054816</v>
       </c>
       <c r="I34" s="13">
-        <v>2054816</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>13</v>
+      <c r="E35" s="11">
+        <v>516885</v>
       </c>
       <c r="F35" s="11">
-        <v>516885</v>
+        <v>822112</v>
       </c>
       <c r="G35" s="11">
-        <v>822112</v>
-      </c>
-      <c r="H35" s="11">
         <v>1077939</v>
       </c>
+      <c r="H35" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I35" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="13" t="s">
-        <v>13</v>
+      <c r="E36" s="13">
+        <v>142157</v>
       </c>
       <c r="F36" s="13">
-        <v>142157</v>
+        <v>232477</v>
       </c>
       <c r="G36" s="13">
-        <v>232477</v>
-      </c>
-      <c r="H36" s="13">
         <v>545059</v>
       </c>
+      <c r="H36" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I36" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
@@ -1314,36 +1314,36 @@
       <c r="G37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>13</v>
+      <c r="H37" s="11">
+        <v>556259</v>
       </c>
       <c r="I37" s="11">
-        <v>556259</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2898190</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>0</v>
+        <v>674558</v>
       </c>
       <c r="F38" s="15">
-        <v>674558</v>
+        <v>1061939</v>
       </c>
       <c r="G38" s="15">
-        <v>1061939</v>
+        <v>1622998</v>
       </c>
       <c r="H38" s="15">
-        <v>1622998</v>
+        <v>2611075</v>
       </c>
       <c r="I38" s="15">
-        <v>2611075</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2898190</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>30</v>
       </c>
@@ -1355,77 +1355,77 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>13</v>
+      <c r="E40" s="11">
+        <v>144731</v>
       </c>
       <c r="F40" s="11">
-        <v>144731</v>
+        <v>224353</v>
       </c>
       <c r="G40" s="11">
-        <v>224353</v>
+        <v>205477</v>
       </c>
       <c r="H40" s="11">
-        <v>205477</v>
+        <v>937896</v>
       </c>
       <c r="I40" s="11">
-        <v>937896</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3373455</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13">
+        <v>213681</v>
+      </c>
+      <c r="F41" s="13">
+        <v>284854</v>
+      </c>
+      <c r="G41" s="13">
+        <v>86025</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="13">
-        <v>213681</v>
-      </c>
-      <c r="G41" s="13">
-        <v>284854</v>
-      </c>
-      <c r="H41" s="13">
-        <v>86025</v>
-      </c>
-      <c r="I41" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17">
-        <v>0</v>
+        <v>358412</v>
       </c>
       <c r="F42" s="17">
-        <v>358412</v>
+        <v>509207</v>
       </c>
       <c r="G42" s="17">
-        <v>509207</v>
+        <v>291502</v>
       </c>
       <c r="H42" s="17">
-        <v>291502</v>
+        <v>937896</v>
       </c>
       <c r="I42" s="17">
-        <v>937896</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3373898</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
@@ -1437,12 +1437,12 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
@@ -1451,17 +1451,17 @@
       <c r="F44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>13</v>
+      <c r="G44" s="11">
+        <v>33250</v>
       </c>
       <c r="H44" s="11">
-        <v>33250</v>
+        <v>19000</v>
       </c>
       <c r="I44" s="11">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>24</v>
       </c>
@@ -1474,25 +1474,25 @@
         <v>0</v>
       </c>
       <c r="G45" s="15">
-        <v>0</v>
+        <v>33250</v>
       </c>
       <c r="H45" s="15">
-        <v>33250</v>
+        <v>19000</v>
       </c>
       <c r="I45" s="15">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
-        <v>13</v>
+      <c r="E46" s="17">
+        <v>0</v>
       </c>
       <c r="F46" s="17">
         <v>0</v>
@@ -1500,60 +1500,60 @@
       <c r="G46" s="17">
         <v>0</v>
       </c>
-      <c r="H46" s="17">
-        <v>0</v>
+      <c r="H46" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="I46" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>13</v>
+      <c r="E47" s="15">
+        <v>0</v>
       </c>
       <c r="F47" s="15">
-        <v>0</v>
+        <v>-76726</v>
       </c>
       <c r="G47" s="15">
-        <v>-76726</v>
+        <v>-165601</v>
       </c>
       <c r="H47" s="15">
-        <v>-165601</v>
+        <v>-28552</v>
       </c>
       <c r="I47" s="15">
-        <v>-28552</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17">
-        <v>0</v>
+        <v>1032970</v>
       </c>
       <c r="F48" s="17">
-        <v>1032970</v>
+        <v>1494420</v>
       </c>
       <c r="G48" s="17">
-        <v>1494420</v>
+        <v>1782149</v>
       </c>
       <c r="H48" s="17">
-        <v>1782149</v>
+        <v>3539419</v>
       </c>
       <c r="I48" s="17">
-        <v>3539419</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6300588</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1563,7 +1563,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1573,7 +1573,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1583,7 +1583,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>32</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1615,7 +1615,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>33</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1635,23 +1635,23 @@
         <v>34</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>13</v>
+      <c r="E55" s="11">
+        <v>729444</v>
       </c>
       <c r="F55" s="11">
-        <v>729444</v>
+        <v>734046</v>
       </c>
       <c r="G55" s="11">
-        <v>734046</v>
-      </c>
-      <c r="H55" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>14</v>
       </c>
@@ -1668,14 +1668,14 @@
       <c r="G56" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>13</v>
+      <c r="H56" s="13">
+        <v>3609726</v>
       </c>
       <c r="I56" s="13">
-        <v>3609726</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1683,23 +1683,23 @@
         <v>34</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>13</v>
+      <c r="E57" s="11">
+        <v>1240044</v>
       </c>
       <c r="F57" s="11">
-        <v>1240044</v>
+        <v>1812336</v>
       </c>
       <c r="G57" s="11">
-        <v>1812336</v>
-      </c>
-      <c r="H57" s="11">
         <v>2336863</v>
       </c>
+      <c r="H57" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I57" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>16</v>
       </c>
@@ -1707,23 +1707,23 @@
         <v>34</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
-        <v>13</v>
+      <c r="E58" s="13">
+        <v>1002405</v>
       </c>
       <c r="F58" s="13">
-        <v>1002405</v>
+        <v>1513108</v>
       </c>
       <c r="G58" s="13">
-        <v>1513108</v>
-      </c>
-      <c r="H58" s="13">
         <v>2620753</v>
       </c>
+      <c r="H58" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I58" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>17</v>
       </c>
@@ -1740,14 +1740,14 @@
       <c r="G59" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>13</v>
+      <c r="H59" s="11">
+        <v>4345102</v>
       </c>
       <c r="I59" s="11">
-        <v>4345102</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5324286</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>35</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>11</v>
       </c>
@@ -1767,49 +1767,49 @@
         <v>34</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>13</v>
+      <c r="E61" s="11">
+        <v>1221565</v>
       </c>
       <c r="F61" s="11">
-        <v>1221565</v>
+        <v>1740034</v>
       </c>
       <c r="G61" s="11">
-        <v>1740034</v>
+        <v>2083227</v>
       </c>
       <c r="H61" s="11">
-        <v>2083227</v>
+        <v>3771005</v>
       </c>
       <c r="I61" s="11">
-        <v>3771005</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6664773</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13">
+        <v>1414609</v>
+      </c>
+      <c r="F62" s="13">
+        <v>2288425</v>
+      </c>
+      <c r="G62" s="13">
+        <v>2719212</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13">
+        <v>9425532</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="13">
-        <v>1414609</v>
-      </c>
-      <c r="G62" s="13">
-        <v>2288425</v>
-      </c>
-      <c r="H62" s="13">
-        <v>2719212</v>
-      </c>
-      <c r="I62" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -1819,12 +1819,12 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
@@ -1833,8 +1833,8 @@
       <c r="F64" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>13</v>
+      <c r="G64" s="11">
+        <v>0</v>
       </c>
       <c r="H64" s="11">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1853,7 +1853,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1863,7 +1863,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1873,7 +1873,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>38</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1905,7 +1905,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>39</v>
       </c>
@@ -1917,36 +1917,36 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>13</v>
+      <c r="E71" s="11">
+        <v>-7758</v>
       </c>
       <c r="F71" s="11">
-        <v>-7758</v>
+        <v>-3586</v>
       </c>
       <c r="G71" s="11">
-        <v>-3586</v>
-      </c>
-      <c r="H71" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
@@ -1958,67 +1958,67 @@
       <c r="G72" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="13" t="s">
-        <v>13</v>
+      <c r="H72" s="13">
+        <v>-1684802</v>
       </c>
       <c r="I72" s="13">
-        <v>-1684802</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>13</v>
+      <c r="E73" s="11">
+        <v>-429014</v>
       </c>
       <c r="F73" s="11">
-        <v>-429014</v>
+        <v>-699700</v>
       </c>
       <c r="G73" s="11">
-        <v>-699700</v>
-      </c>
-      <c r="H73" s="11">
         <v>-1050430</v>
       </c>
+      <c r="H73" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I73" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D74" s="13"/>
-      <c r="E74" s="13" t="s">
-        <v>13</v>
+      <c r="E74" s="13">
+        <v>-104037</v>
       </c>
       <c r="F74" s="13">
-        <v>-104037</v>
+        <v>-189260</v>
       </c>
       <c r="G74" s="13">
-        <v>-189260</v>
-      </c>
-      <c r="H74" s="13">
         <v>-310683</v>
       </c>
+      <c r="H74" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I74" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
@@ -2030,36 +2030,36 @@
       <c r="G75" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>13</v>
+      <c r="H75" s="11">
+        <v>-328923</v>
       </c>
       <c r="I75" s="11">
-        <v>-328923</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2539426</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
-        <v>0</v>
+        <v>-540809</v>
       </c>
       <c r="F76" s="15">
-        <v>-540809</v>
+        <v>-892546</v>
       </c>
       <c r="G76" s="15">
-        <v>-892546</v>
+        <v>-1361113</v>
       </c>
       <c r="H76" s="15">
-        <v>-1361113</v>
+        <v>-2013725</v>
       </c>
       <c r="I76" s="15">
-        <v>-2013725</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2539426</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>41</v>
       </c>
@@ -2071,77 +2071,77 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>13</v>
+      <c r="E78" s="11">
+        <v>-73812</v>
       </c>
       <c r="F78" s="11">
-        <v>-73812</v>
+        <v>-109461</v>
       </c>
       <c r="G78" s="11">
-        <v>-109461</v>
+        <v>-112512</v>
       </c>
       <c r="H78" s="11">
-        <v>-112512</v>
+        <v>-403139</v>
       </c>
       <c r="I78" s="11">
-        <v>-403139</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1500609</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D79" s="13"/>
-      <c r="E79" s="13" t="s">
-        <v>13</v>
+      <c r="E79" s="13">
+        <v>-180845</v>
       </c>
       <c r="F79" s="13">
-        <v>-180845</v>
+        <v>-177315</v>
       </c>
       <c r="G79" s="13">
-        <v>-177315</v>
+        <v>-83447</v>
       </c>
       <c r="H79" s="13">
-        <v>-83447</v>
+        <v>0</v>
       </c>
       <c r="I79" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17">
-        <v>0</v>
+        <v>-254657</v>
       </c>
       <c r="F80" s="17">
-        <v>-254657</v>
+        <v>-286776</v>
       </c>
       <c r="G80" s="17">
-        <v>-286776</v>
+        <v>-195959</v>
       </c>
       <c r="H80" s="17">
-        <v>-195959</v>
+        <v>-403139</v>
       </c>
       <c r="I80" s="17">
-        <v>-403139</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1501029</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>43</v>
       </c>
@@ -2153,12 +2153,12 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
@@ -2167,8 +2167,8 @@
       <c r="F82" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G82" s="11" t="s">
-        <v>13</v>
+      <c r="G82" s="11">
+        <v>0</v>
       </c>
       <c r="H82" s="11">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>44</v>
       </c>
@@ -2199,16 +2199,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D84" s="17"/>
-      <c r="E84" s="17" t="s">
-        <v>13</v>
+      <c r="E84" s="17">
+        <v>0</v>
       </c>
       <c r="F84" s="17">
         <v>0</v>
@@ -2216,60 +2216,60 @@
       <c r="G84" s="17">
         <v>0</v>
       </c>
-      <c r="H84" s="17">
-        <v>0</v>
+      <c r="H84" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D85" s="15"/>
-      <c r="E85" s="15" t="s">
-        <v>13</v>
+      <c r="E85" s="15">
+        <v>0</v>
       </c>
       <c r="F85" s="15">
         <v>0</v>
       </c>
       <c r="G85" s="15">
-        <v>0</v>
+        <v>165601</v>
       </c>
       <c r="H85" s="15">
-        <v>165601</v>
+        <v>0</v>
       </c>
       <c r="I85" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17">
-        <v>0</v>
+        <v>-795466</v>
       </c>
       <c r="F86" s="17">
-        <v>-795466</v>
+        <v>-1179322</v>
       </c>
       <c r="G86" s="17">
-        <v>-1179322</v>
+        <v>-1391471</v>
       </c>
       <c r="H86" s="17">
-        <v>-1391471</v>
+        <v>-2416864</v>
       </c>
       <c r="I86" s="17">
-        <v>-2416864</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4040455</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2279,7 +2279,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2289,7 +2289,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2299,7 +2299,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>45</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2331,7 +2331,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>46</v>
       </c>
@@ -2343,36 +2343,36 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>13</v>
+      <c r="E93" s="11">
+        <v>7758</v>
       </c>
       <c r="F93" s="11">
-        <v>7758</v>
+        <v>3764</v>
       </c>
       <c r="G93" s="11">
-        <v>3764</v>
-      </c>
-      <c r="H93" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
@@ -2384,67 +2384,67 @@
       <c r="G94" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="13" t="s">
-        <v>13</v>
+      <c r="H94" s="13">
+        <v>370014</v>
       </c>
       <c r="I94" s="13">
-        <v>370014</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>13</v>
+      <c r="E95" s="11">
+        <v>87871</v>
       </c>
       <c r="F95" s="11">
-        <v>87871</v>
+        <v>122412</v>
       </c>
       <c r="G95" s="11">
-        <v>122412</v>
-      </c>
-      <c r="H95" s="11">
         <v>27509</v>
       </c>
+      <c r="H95" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I95" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D96" s="13"/>
-      <c r="E96" s="13" t="s">
-        <v>13</v>
+      <c r="E96" s="13">
+        <v>38120</v>
       </c>
       <c r="F96" s="13">
-        <v>38120</v>
+        <v>43217</v>
       </c>
       <c r="G96" s="13">
-        <v>43217</v>
-      </c>
-      <c r="H96" s="13">
         <v>234376</v>
       </c>
+      <c r="H96" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I96" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
@@ -2456,36 +2456,36 @@
       <c r="G97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H97" s="11" t="s">
-        <v>13</v>
+      <c r="H97" s="11">
+        <v>227336</v>
       </c>
       <c r="I97" s="11">
-        <v>227336</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>358764</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
-        <v>0</v>
+        <v>133749</v>
       </c>
       <c r="F98" s="15">
-        <v>133749</v>
+        <v>169393</v>
       </c>
       <c r="G98" s="15">
-        <v>169393</v>
+        <v>261885</v>
       </c>
       <c r="H98" s="15">
-        <v>261885</v>
+        <v>597350</v>
       </c>
       <c r="I98" s="15">
-        <v>597350</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>358764</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>48</v>
       </c>
@@ -2497,77 +2497,77 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>13</v>
+      <c r="E100" s="11">
+        <v>70919</v>
       </c>
       <c r="F100" s="11">
-        <v>70919</v>
+        <v>114892</v>
       </c>
       <c r="G100" s="11">
-        <v>114892</v>
+        <v>92965</v>
       </c>
       <c r="H100" s="11">
-        <v>92965</v>
+        <v>534757</v>
       </c>
       <c r="I100" s="11">
-        <v>534757</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1872846</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D101" s="13"/>
-      <c r="E101" s="13" t="s">
-        <v>13</v>
+      <c r="E101" s="13">
+        <v>32836</v>
       </c>
       <c r="F101" s="13">
-        <v>32836</v>
+        <v>107539</v>
       </c>
       <c r="G101" s="13">
-        <v>107539</v>
+        <v>2578</v>
       </c>
       <c r="H101" s="13">
-        <v>2578</v>
+        <v>0</v>
       </c>
       <c r="I101" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17">
-        <v>0</v>
+        <v>103755</v>
       </c>
       <c r="F102" s="17">
-        <v>103755</v>
+        <v>222431</v>
       </c>
       <c r="G102" s="17">
-        <v>222431</v>
+        <v>95543</v>
       </c>
       <c r="H102" s="17">
-        <v>95543</v>
+        <v>534757</v>
       </c>
       <c r="I102" s="17">
-        <v>534757</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1872869</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>50</v>
       </c>
@@ -2579,12 +2579,12 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
@@ -2593,17 +2593,17 @@
       <c r="F104" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G104" s="11" t="s">
-        <v>13</v>
+      <c r="G104" s="11">
+        <v>33250</v>
       </c>
       <c r="H104" s="11">
-        <v>33250</v>
+        <v>19000</v>
       </c>
       <c r="I104" s="11">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>51</v>
       </c>
@@ -2616,35 +2616,35 @@
         <v>0</v>
       </c>
       <c r="G105" s="15">
-        <v>0</v>
+        <v>33250</v>
       </c>
       <c r="H105" s="15">
-        <v>33250</v>
+        <v>19000</v>
       </c>
       <c r="I105" s="15">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17">
-        <v>0</v>
+        <v>237504</v>
       </c>
       <c r="F106" s="17">
-        <v>237504</v>
+        <v>391824</v>
       </c>
       <c r="G106" s="17">
-        <v>391824</v>
+        <v>390678</v>
       </c>
       <c r="H106" s="17">
-        <v>390678</v>
+        <v>1151107</v>
       </c>
       <c r="I106" s="17">
-        <v>1151107</v>
+        <v>2260133</v>
       </c>
     </row>
   </sheetData>
